--- a/NformTester/NformTester/Keywordscripts/600.70.20.10_ChangePasswordAdditionalInfo.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.70.20.10_ChangePasswordAdditionalInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="815">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3633,10 +3633,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3686,6 +3682,14 @@
   </si>
   <si>
     <t>Logged out. Success</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4643,7 +4647,7 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4732,7 +4736,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4773,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>191</v>
@@ -4876,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -4888,7 +4892,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4">
@@ -4907,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4938,7 +4942,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="4"/>
@@ -4986,18 +4990,18 @@
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J11" s="20" t="b">
         <v>1</v>
@@ -5017,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -5098,10 +5102,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F15" s="20">
         <v>2</v>
@@ -5138,7 +5142,7 @@
         <v>795</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>797</v>
@@ -5158,7 +5162,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>191</v>
@@ -5187,18 +5191,18 @@
         <v>17</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J18" s="20" t="b">
         <v>1</v>
@@ -5218,18 +5222,18 @@
         <v>18</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J19" s="20" t="b">
         <v>1</v>
@@ -5251,7 +5255,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -5340,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
